--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_9_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_9_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-996208.1458535284</v>
+        <v>-998908.0379747523</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>22.41361582359349</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>412.2877386950441</v>
+        <v>12.28773869504417</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>308.5974454495114</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>75.61180150953142</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.084306901502593</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -817,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>23.33630068033036</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.48346005197</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>70.90523673170711</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -896,13 +896,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>27.21431008743838</v>
       </c>
       <c r="D5" t="n">
-        <v>264.6257309083933</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767973</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
         <v>251.0434357771752</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,19 +1060,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>16.03350408309068</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>207.3126292503784</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1133,10 +1133,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.5250233818693</v>
+        <v>349.9203194473993</v>
       </c>
       <c r="H8" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767967</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>190.1450036028936</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>135.3222619078506</v>
       </c>
       <c r="H9" t="n">
-        <v>92.71437374394024</v>
+        <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555391</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7052287134384</v>
+        <v>130.5950817976607</v>
       </c>
       <c r="U10" t="n">
-        <v>130.8732708232409</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1543,10 +1543,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>108.5813113004298</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>53.08838020946239</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>54.32649042089578</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673009</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -2002,10 +2002,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>28.75188085812055</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>52.47682210852985</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>187.4608242120716</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>9.146142788179874</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>138.1441996497202</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>93.4044447618827</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>141.5888089825039</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2953,13 +2953,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>4.019807611472022</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>151.8555862333575</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,7 +3187,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D34" t="n">
         <v>124.3308255261727</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3433,7 +3433,7 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
         <v>141.2394908002292</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3560,7 +3560,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652587</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3952,7 +3952,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,10 +4135,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
         <v>122.1493151545295</v>
@@ -4147,13 +4147,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1248.200538360964</v>
+        <v>1196.355812239013</v>
       </c>
       <c r="C2" t="n">
-        <v>879.2380214205527</v>
+        <v>1196.355812239013</v>
       </c>
       <c r="D2" t="n">
-        <v>879.2380214205527</v>
+        <v>838.090113632263</v>
       </c>
       <c r="E2" t="n">
-        <v>879.2380214205527</v>
+        <v>452.3018610340187</v>
       </c>
       <c r="F2" t="n">
-        <v>468.2521166309451</v>
+        <v>452.3018610340187</v>
       </c>
       <c r="G2" t="n">
-        <v>51.79985532281972</v>
+        <v>439.8900037662974</v>
       </c>
       <c r="H2" t="n">
-        <v>51.79985532281972</v>
+        <v>128.1754124031545</v>
       </c>
       <c r="I2" t="n">
         <v>51.79985532281972</v>
@@ -4331,25 +4331,25 @@
         <v>293.3053724073753</v>
       </c>
       <c r="K2" t="n">
-        <v>605.2571586872803</v>
+        <v>644.3837423617508</v>
       </c>
       <c r="L2" t="n">
-        <v>842.8799399054703</v>
+        <v>882.0065235799409</v>
       </c>
       <c r="M2" t="n">
-        <v>1138.950506463071</v>
+        <v>1178.077090137542</v>
       </c>
       <c r="N2" t="n">
-        <v>1444.425612698655</v>
+        <v>1483.552196373125</v>
       </c>
       <c r="O2" t="n">
-        <v>1719.541832015287</v>
+        <v>1758.668415689757</v>
       </c>
       <c r="P2" t="n">
-        <v>2238.426880394156</v>
+        <v>2277.553464068627</v>
       </c>
       <c r="Q2" t="n">
-        <v>2550.866182466516</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R2" t="n">
         <v>2589.992766140986</v>
@@ -4367,13 +4367,13 @@
         <v>1982.600918459333</v>
       </c>
       <c r="W2" t="n">
-        <v>1629.832263189219</v>
+        <v>1982.600918459333</v>
       </c>
       <c r="X2" t="n">
-        <v>1256.366504928139</v>
+        <v>1609.135160198253</v>
       </c>
       <c r="Y2" t="n">
-        <v>1248.200538360964</v>
+        <v>1218.995828222441</v>
       </c>
     </row>
     <row r="3">
@@ -4410,22 +4410,22 @@
         <v>201.9455071369548</v>
       </c>
       <c r="K3" t="n">
-        <v>323.3685994072329</v>
+        <v>585.1891840496857</v>
       </c>
       <c r="L3" t="n">
-        <v>900.091414510487</v>
+        <v>1161.91199915294</v>
       </c>
       <c r="M3" t="n">
-        <v>1541.114624130381</v>
+        <v>1425.851530648426</v>
       </c>
       <c r="N3" t="n">
-        <v>1905.604188315629</v>
+        <v>1711.185401081757</v>
       </c>
       <c r="O3" t="n">
-        <v>2144.409140067087</v>
+        <v>2037.107513972039</v>
       </c>
       <c r="P3" t="n">
-        <v>2316.738101020796</v>
+        <v>2524.714615879286</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>349.8295883175485</v>
+        <v>1817.901557000121</v>
       </c>
       <c r="C4" t="n">
-        <v>349.8295883175485</v>
+        <v>1648.965374072214</v>
       </c>
       <c r="D4" t="n">
-        <v>199.7129489052128</v>
+        <v>1648.965374072214</v>
       </c>
       <c r="E4" t="n">
-        <v>51.79985532281972</v>
+        <v>1501.052280489821</v>
       </c>
       <c r="F4" t="n">
-        <v>51.79985532281972</v>
+        <v>1354.162332991911</v>
       </c>
       <c r="G4" t="n">
-        <v>51.79985532281972</v>
+        <v>1330.590312102689</v>
       </c>
       <c r="H4" t="n">
-        <v>51.79985532281972</v>
+        <v>1330.590312102689</v>
       </c>
       <c r="I4" t="n">
-        <v>51.79985532281972</v>
+        <v>1330.590312102689</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018376</v>
+        <v>1332.824984110053</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5436166159864</v>
+        <v>1466.334073395855</v>
       </c>
       <c r="L4" t="n">
-        <v>413.9157199341299</v>
+        <v>1692.706176713999</v>
       </c>
       <c r="M4" t="n">
-        <v>662.9824862666695</v>
+        <v>1941.772943046538</v>
       </c>
       <c r="N4" t="n">
-        <v>911.5616180092698</v>
+        <v>2190.352074789138</v>
       </c>
       <c r="O4" t="n">
-        <v>1125.148384357424</v>
+        <v>2403.938841137293</v>
       </c>
       <c r="P4" t="n">
-        <v>1284.388078993468</v>
+        <v>2563.178535773336</v>
       </c>
       <c r="Q4" t="n">
-        <v>1311.202309361118</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R4" t="n">
-        <v>1193.542248702562</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S4" t="n">
-        <v>1193.542248702562</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T4" t="n">
-        <v>1193.542248702562</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="U4" t="n">
-        <v>1121.920797458414</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="V4" t="n">
-        <v>867.2363092525266</v>
+        <v>2335.308277935099</v>
       </c>
       <c r="W4" t="n">
-        <v>577.8191392155659</v>
+        <v>2045.891107898139</v>
       </c>
       <c r="X4" t="n">
-        <v>349.8295883175485</v>
+        <v>1817.901557000121</v>
       </c>
       <c r="Y4" t="n">
-        <v>349.8295883175485</v>
+        <v>1817.901557000121</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1597.045042748997</v>
+        <v>1264.222502627569</v>
       </c>
       <c r="C5" t="n">
-        <v>1597.045042748997</v>
+        <v>1236.733300519046</v>
       </c>
       <c r="D5" t="n">
-        <v>1329.746324659711</v>
+        <v>878.4676019122953</v>
       </c>
       <c r="E5" t="n">
-        <v>943.9580720614667</v>
+        <v>878.4676019122953</v>
       </c>
       <c r="F5" t="n">
-        <v>532.9721672718592</v>
+        <v>467.4816971226878</v>
       </c>
       <c r="G5" t="n">
-        <v>117.2903254719912</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H5" t="n">
-        <v>117.2903254719912</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I5" t="n">
         <v>51.79985532281972</v>
@@ -4592,25 +4592,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="T5" t="n">
-        <v>2589.992766140986</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="U5" t="n">
-        <v>2336.413538083233</v>
+        <v>2003.590997961805</v>
       </c>
       <c r="V5" t="n">
-        <v>2336.413538083233</v>
+        <v>2003.590997961805</v>
       </c>
       <c r="W5" t="n">
-        <v>1983.644882813119</v>
+        <v>1650.822342691691</v>
       </c>
       <c r="X5" t="n">
-        <v>1983.644882813119</v>
+        <v>1650.822342691691</v>
       </c>
       <c r="Y5" t="n">
-        <v>1983.644882813119</v>
+        <v>1650.822342691691</v>
       </c>
     </row>
     <row r="6">
@@ -4650,13 +4650,13 @@
         <v>688.5974568552863</v>
       </c>
       <c r="L6" t="n">
-        <v>1104.091621317939</v>
+        <v>985.909405971601</v>
       </c>
       <c r="M6" t="n">
-        <v>1470.397510810264</v>
+        <v>1352.215295463926</v>
       </c>
       <c r="N6" t="n">
-        <v>1860.807072136007</v>
+        <v>1742.624856789669</v>
       </c>
       <c r="O6" t="n">
         <v>2195.735752851538</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>201.9164947351555</v>
+        <v>618.4611152054507</v>
       </c>
       <c r="C7" t="n">
-        <v>201.9164947351555</v>
+        <v>618.4611152054507</v>
       </c>
       <c r="D7" t="n">
-        <v>51.79985532281972</v>
+        <v>468.344475793115</v>
       </c>
       <c r="E7" t="n">
-        <v>51.79985532281972</v>
+        <v>320.4313822107218</v>
       </c>
       <c r="F7" t="n">
-        <v>51.79985532281972</v>
+        <v>173.5414347128115</v>
       </c>
       <c r="G7" t="n">
-        <v>51.79985532281972</v>
+        <v>173.5414347128115</v>
       </c>
       <c r="H7" t="n">
-        <v>51.79985532281972</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="I7" t="n">
         <v>51.79985532281972</v>
@@ -4747,28 +4747,28 @@
         <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1646.983670153878</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S7" t="n">
-        <v>1646.983670153878</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="T7" t="n">
-        <v>1437.576973941374</v>
+        <v>1321.927733452885</v>
       </c>
       <c r="U7" t="n">
-        <v>1148.459196951773</v>
+        <v>1321.927733452885</v>
       </c>
       <c r="V7" t="n">
-        <v>893.7747087458858</v>
+        <v>1067.243245246998</v>
       </c>
       <c r="W7" t="n">
-        <v>604.3575387089253</v>
+        <v>1067.243245246998</v>
       </c>
       <c r="X7" t="n">
-        <v>604.3575387089253</v>
+        <v>839.2536943489808</v>
       </c>
       <c r="Y7" t="n">
-        <v>383.5649595653952</v>
+        <v>618.4611152054507</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1633.570857233913</v>
+        <v>1994.747566535691</v>
       </c>
       <c r="C8" t="n">
-        <v>1633.570857233913</v>
+        <v>1625.78504959528</v>
       </c>
       <c r="D8" t="n">
-        <v>1633.570857233913</v>
+        <v>1267.519350988529</v>
       </c>
       <c r="E8" t="n">
-        <v>1247.782604635669</v>
+        <v>881.7310983902848</v>
       </c>
       <c r="F8" t="n">
-        <v>836.796699846061</v>
+        <v>470.7451936006773</v>
       </c>
       <c r="G8" t="n">
-        <v>421.1148580461929</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="H8" t="n">
-        <v>117.2903254719911</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="I8" t="n">
         <v>51.79985532281972</v>
@@ -4805,19 +4805,19 @@
         <v>189.9868871104782</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135513</v>
+        <v>447.8319447135512</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477388</v>
+        <v>804.6133007477385</v>
       </c>
       <c r="M8" t="n">
         <v>1233.270741187503</v>
       </c>
       <c r="N8" t="n">
-        <v>1673.478115539972</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O8" t="n">
-        <v>2075.818195082062</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P8" t="n">
         <v>2384.705143645557</v>
@@ -4829,25 +4829,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.815585560731</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T8" t="n">
-        <v>2273.749925355788</v>
+        <v>2381.347406599813</v>
       </c>
       <c r="U8" t="n">
-        <v>2020.170697298035</v>
+        <v>2381.347406599813</v>
       </c>
       <c r="V8" t="n">
-        <v>2020.170697298035</v>
+        <v>2381.347406599813</v>
       </c>
       <c r="W8" t="n">
-        <v>2020.170697298035</v>
+        <v>2381.347406599813</v>
       </c>
       <c r="X8" t="n">
-        <v>2020.170697298035</v>
+        <v>2381.347406599813</v>
       </c>
       <c r="Y8" t="n">
-        <v>2020.170697298035</v>
+        <v>2381.347406599813</v>
       </c>
     </row>
     <row r="9">
@@ -4866,40 +4866,40 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6796705356769</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1451125625619</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G9" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065196</v>
+        <v>71.80507655065199</v>
       </c>
       <c r="I9" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>115.2852578226162</v>
+        <v>115.2852578226161</v>
       </c>
       <c r="K9" t="n">
-        <v>491.5015312480849</v>
+        <v>301.9467472258287</v>
       </c>
       <c r="L9" t="n">
-        <v>788.8134803643998</v>
+        <v>599.2586963421434</v>
       </c>
       <c r="M9" t="n">
-        <v>1155.119369856725</v>
+        <v>965.5645858344687</v>
       </c>
       <c r="N9" t="n">
-        <v>1545.528931182468</v>
+        <v>1355.974147160211</v>
       </c>
       <c r="O9" t="n">
-        <v>1880.457611897999</v>
+        <v>1690.902827875742</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.212480716556</v>
+        <v>2255.657696694298</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.061870084021</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>517.8057770556592</v>
+        <v>517.7426251609727</v>
       </c>
       <c r="C10" t="n">
-        <v>517.8057770556592</v>
+        <v>348.8064422330658</v>
       </c>
       <c r="D10" t="n">
-        <v>367.6891376433235</v>
+        <v>198.6898028207301</v>
       </c>
       <c r="E10" t="n">
-        <v>219.7760440609304</v>
+        <v>198.6898028207301</v>
       </c>
       <c r="F10" t="n">
-        <v>219.7760440609304</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G10" t="n">
         <v>51.79985532281972</v>
@@ -4960,52 +4960,52 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080555</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121973</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225446</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317425</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N10" t="n">
-        <v>1130.141273750634</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O10" t="n">
-        <v>1391.6026718971</v>
+        <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1591.807384634811</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q10" t="n">
-        <v>1646.983670153879</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1544.862307910905</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S10" t="n">
-        <v>1348.412641916874</v>
+        <v>1348.412641916872</v>
       </c>
       <c r="T10" t="n">
-        <v>1125.478067458855</v>
+        <v>1216.498417878831</v>
       </c>
       <c r="U10" t="n">
-        <v>993.2828444050762</v>
+        <v>927.3806408892298</v>
       </c>
       <c r="V10" t="n">
-        <v>738.5983561991893</v>
+        <v>927.3806408892298</v>
       </c>
       <c r="W10" t="n">
-        <v>738.5983561991893</v>
+        <v>927.3806408892298</v>
       </c>
       <c r="X10" t="n">
-        <v>738.5983561991893</v>
+        <v>699.3910899912124</v>
       </c>
       <c r="Y10" t="n">
-        <v>517.8057770556592</v>
+        <v>699.3910899912124</v>
       </c>
     </row>
     <row r="11">
@@ -5027,16 +5027,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
@@ -5048,10 +5048,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5121,22 +5121,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M12" t="n">
-        <v>923.0670414349511</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>929.7309773356195</v>
+        <v>984.5467179762944</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>815.6105350483875</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>665.4938956360518</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>517.5808020536587</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>370.6908545557483</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>203.4947552706282</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5224,25 +5224,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2393.338457106056</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2393.338457106056</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>2104.263230450254</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1849.578742244367</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1560.161572207407</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>1332.172021309389</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>1111.379442165859</v>
+        <v>1166.195182806534</v>
       </c>
     </row>
     <row r="14">
@@ -5258,7 +5258,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5273,22 +5273,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5355,25 +5355,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7414352191925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>707.672526468518</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5443,43 +5443,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602303</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396416</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359455</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614378</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179076</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5501,7 +5501,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,22 +5510,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438171</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400717</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5738,34 +5738,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>726.955532171245</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C22" t="n">
-        <v>558.0193492433381</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="D22" t="n">
-        <v>407.9027098310023</v>
+        <v>583.3384263047943</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>435.4253327224012</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>288.5353852244908</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>288.5353852244908</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>146.8235540666889</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2190.563011941682</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U22" t="n">
-        <v>1901.48778528588</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V22" t="n">
-        <v>1646.803297079993</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W22" t="n">
-        <v>1357.386127043032</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X22" t="n">
-        <v>1129.396576145015</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y22" t="n">
-        <v>908.6039970014847</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="23">
@@ -5981,25 +5981,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,55 +6121,55 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876693</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597624</v>
+        <v>632.7557007032921</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>482.6390612909563</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>482.6390612909563</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>482.6390612909563</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>315.4429620058363</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
         <v>2264.108249235165</v>
@@ -6187,10 +6187,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614391</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.547769317909</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="26">
@@ -6212,10 +6212,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>726.955532171245</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>558.0193492433381</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D28" t="n">
-        <v>407.9027098310023</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6415,19 +6415,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1901.48778528588</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1646.803297079993</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1357.386127043032</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1129.396576145015</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.6039970014847</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6449,19 +6449,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.0655846733346</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>411.1294017454277</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>261.0127623330919</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E31" t="n">
-        <v>261.0127623330919</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>265.0731740618515</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>97.87707477673149</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>97.87707477673149</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2043.673064443772</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1754.597837787969</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1499.913349582082</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1210.496179545122</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>982.5066286471044</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>761.7140495035743</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6686,61 +6686,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797189</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384021</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6892,7 +6892,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,37 +6947,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,22 +7008,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637307</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7090,28 +7090,28 @@
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
         <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
         <v>2639.297491717215</v>
@@ -7166,16 +7166,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,37 +7184,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,28 +7245,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C40" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942657</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7403,46 +7403,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,25 +7482,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319316</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7600,19 +7600,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="44">
@@ -7637,25 +7637,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819251</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111707</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355937</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
@@ -7810,7 +7810,7 @@
         <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,19 +7828,19 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -7979,7 +7979,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>151.673509307991</v>
+        <v>191.1953109993754</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -8000,7 +8000,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
-        <v>65.71641987298243</v>
+        <v>26.19461818159803</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,25 +8058,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>380.8926041660687</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>79.95524621405775</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>87.99713246345965</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,7 +8298,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>119.3759750973111</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,7 +8307,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>119.375975097311</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>191.4694788103595</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>191.4694788103615</v>
       </c>
       <c r="R9" t="n">
-        <v>20.18437503906574</v>
+        <v>20.1843750390658</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>-1.972915003185951e-13</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9179,7 +9179,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>360.3202258398871</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495114</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885203</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22604,16 +22604,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>263.8069540414974</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>378.153631754551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>31.71340154579411</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>127.9379057921822</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>125.5054897610415</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>57.22910392194322</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23890,10 +23890,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>119.8635921600918</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>138.4949402405074</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>28.78901421003568</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,10 +24175,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>29.94462611521669</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>139.4693302300325</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2.150513196503709</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>144.5956654067402</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,13 +24841,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>77.24602870709352</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>65.54986409393072</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1049162.518953242</v>
+        <v>1049162.518953241</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1216209.395220121</v>
+        <v>1216209.39522012</v>
       </c>
     </row>
     <row r="6">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>169252.1408943217</v>
+        <v>169252.1408943218</v>
       </c>
       <c r="C2" t="n">
         <v>205260.4424660708</v>
       </c>
       <c r="D2" t="n">
-        <v>205260.4424660709</v>
+        <v>205260.4424660708</v>
       </c>
       <c r="E2" t="n">
         <v>201786.6499225016</v>
       </c>
       <c r="F2" t="n">
-        <v>201786.6499225016</v>
+        <v>201786.6499225015</v>
       </c>
       <c r="G2" t="n">
         <v>201786.6499225016</v>
@@ -26332,25 +26332,25 @@
         <v>201786.6499225015</v>
       </c>
       <c r="I2" t="n">
-        <v>201786.6499225015</v>
+        <v>201786.6499225016</v>
       </c>
       <c r="J2" t="n">
-        <v>201786.6499225015</v>
+        <v>201786.6499225017</v>
       </c>
       <c r="K2" t="n">
-        <v>201786.6499225015</v>
+        <v>201786.6499225016</v>
       </c>
       <c r="L2" t="n">
+        <v>205260.4424660711</v>
+      </c>
+      <c r="M2" t="n">
         <v>205260.4424660709</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>205260.4424660709</v>
+      </c>
+      <c r="O2" t="n">
         <v>205260.442466071</v>
-      </c>
-      <c r="N2" t="n">
-        <v>205260.4424660708</v>
-      </c>
-      <c r="O2" t="n">
-        <v>205260.4424660709</v>
       </c>
       <c r="P2" t="n">
         <v>205260.4424660709</v>
@@ -26369,16 +26369,16 @@
         <v>172764.3597898951</v>
       </c>
       <c r="D3" t="n">
-        <v>3.894519977620803e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457504</v>
+        <v>500888.8677457508</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.0168260479</v>
+        <v>169414.0168260481</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363192</v>
+        <v>19427.71799363176</v>
       </c>
       <c r="M3" t="n">
         <v>130884.4569042352</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>77576.42687802279</v>
+        <v>77576.4268780228</v>
       </c>
       <c r="C4" t="n">
         <v>129066.754725248</v>
       </c>
       <c r="D4" t="n">
-        <v>129066.7547252479</v>
+        <v>129066.754725248</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.48053169506</v>
       </c>
       <c r="F4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695023</v>
+        <v>6287.480531695061</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695024</v>
+        <v>6287.480531695062</v>
       </c>
       <c r="I4" t="n">
+        <v>6287.480531695061</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6287.48053169506</v>
+      </c>
+      <c r="K4" t="n">
         <v>6287.480531695052</v>
       </c>
-      <c r="J4" t="n">
-        <v>6287.480531695061</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6287.480531695051</v>
-      </c>
       <c r="L4" t="n">
-        <v>14278.33979478849</v>
+        <v>14278.33979478852</v>
       </c>
       <c r="M4" t="n">
-        <v>14278.33979478849</v>
+        <v>14278.33979478851</v>
       </c>
       <c r="N4" t="n">
-        <v>14278.33979478848</v>
+        <v>14278.33979478852</v>
       </c>
       <c r="O4" t="n">
-        <v>14278.33979478847</v>
+        <v>14278.33979478852</v>
       </c>
       <c r="P4" t="n">
-        <v>14278.33979478851</v>
+        <v>14278.33979478852</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-937352.2967560876</v>
+        <v>-937712.3797718053</v>
       </c>
       <c r="C6" t="n">
         <v>-190051.7614105818</v>
       </c>
       <c r="D6" t="n">
-        <v>-17287.40162068701</v>
+        <v>-17287.40162068674</v>
       </c>
       <c r="E6" t="n">
-        <v>-406512.228178851</v>
+        <v>-406546.9661042871</v>
       </c>
       <c r="F6" t="n">
-        <v>94376.63956689941</v>
+        <v>94341.90164146366</v>
       </c>
       <c r="G6" t="n">
-        <v>94376.63956689926</v>
+        <v>94341.90164146372</v>
       </c>
       <c r="H6" t="n">
-        <v>94376.63956689932</v>
+        <v>94341.90164146363</v>
       </c>
       <c r="I6" t="n">
-        <v>94376.63956689929</v>
+        <v>94341.90164146372</v>
       </c>
       <c r="J6" t="n">
-        <v>-75037.37725914852</v>
+        <v>-75072.11518458427</v>
       </c>
       <c r="K6" t="n">
-        <v>94376.63956689935</v>
+        <v>94341.90164146369</v>
       </c>
       <c r="L6" t="n">
-        <v>68390.26882373505</v>
+        <v>68390.26882373547</v>
       </c>
       <c r="M6" t="n">
-        <v>-43066.47008686812</v>
+        <v>-43066.47008686824</v>
       </c>
       <c r="N6" t="n">
-        <v>87817.98681736689</v>
+        <v>87817.98681736703</v>
       </c>
       <c r="O6" t="n">
-        <v>87817.98681736701</v>
+        <v>87817.98681736705</v>
       </c>
       <c r="P6" t="n">
-        <v>87817.98681736695</v>
+        <v>87817.98681736703</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>939.7063906498445</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498449</v>
+        <v>939.7063906498445</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,7 +26793,7 @@
         <v>647.4981915352465</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26817,19 +26817,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26963,16 +26963,16 @@
         <v>189.7254341522367</v>
       </c>
       <c r="D3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918288</v>
+        <v>428.2691096918293</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26987,7 +26987,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644019</v>
+        <v>525.210096564402</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352466</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644019</v>
+        <v>525.210096564402</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644019</v>
+        <v>525.210096564402</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>18.62834604932061</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>63.94530442863754</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27537,19 +27537,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.6385546828073</v>
+        <v>143.302254002477</v>
       </c>
       <c r="H4" t="n">
         <v>150.2028876639205</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>116.48346005197</v>
       </c>
       <c r="S4" t="n">
         <v>200.4475243713015</v>
@@ -27591,7 +27591,7 @@
         <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
-        <v>215.3400240061119</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27616,13 +27616,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>338.0585816835692</v>
       </c>
       <c r="D5" t="n">
-        <v>90.05731071228962</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,19 +27780,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
-        <v>147.161060211447</v>
+        <v>131.1275561283563</v>
       </c>
       <c r="I7" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>13.39259946306004</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,10 +27853,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,10 +27865,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>61.60470393447008</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
-        <v>16.41390234286715</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
         <v>147.161060211447</v>
@@ -28062,22 +28062,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>90.11014691577776</v>
       </c>
       <c r="U10" t="n">
-        <v>155.3533283964647</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28333,7 +28333,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="38">
@@ -30280,7 +30280,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265706</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H8" t="n">
-        <v>38.68851486730742</v>
+        <v>38.6885148673074</v>
       </c>
       <c r="I8" t="n">
         <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>320.6287649182605</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793979</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L8" t="n">
-        <v>596.1516230853283</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027923</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N8" t="n">
-        <v>674.0669770839336</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712727</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062754</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.9506271086972</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R8" t="n">
-        <v>237.3018354237521</v>
+        <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.08466081179235</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T8" t="n">
-        <v>16.53694361837064</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3022171306612564</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.021255255360044</v>
+        <v>2.021255255360043</v>
       </c>
       <c r="H9" t="n">
-        <v>19.52107049255622</v>
+        <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586116</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J9" t="n">
-        <v>190.9642958583803</v>
+        <v>190.9642958583802</v>
       </c>
       <c r="K9" t="n">
-        <v>326.3883979675032</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L9" t="n">
-        <v>438.8694798973639</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041654</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N9" t="n">
-        <v>525.6948043315581</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O9" t="n">
-        <v>480.9080431470013</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274807</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q9" t="n">
-        <v>258.0114603157839</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R9" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.54392985284991</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841577</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1329773194315819</v>
+        <v>0.1329773194315818</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31674,46 +31674,46 @@
         <v>1.694552507729228</v>
       </c>
       <c r="H10" t="n">
-        <v>15.06611229599261</v>
+        <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425717</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J10" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>196.8761913525412</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L10" t="n">
-        <v>251.9337428309437</v>
+        <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
-        <v>265.6288080979553</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509647</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O10" t="n">
-        <v>239.5172944561278</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P10" t="n">
-        <v>204.9484232984513</v>
+        <v>204.9484232984512</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.8956649881266</v>
+        <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662511</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288118</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843065</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09243013678523075</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31841,16 +31841,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>556.7959610899863</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -31859,7 +31859,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32075,16 +32075,16 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>433.9798411722591</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32093,10 +32093,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>437.8531046913764</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M18" t="n">
-        <v>233.9389431948329</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>328.9038320421819</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>225.4828684302374</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33023,22 +33023,22 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>302.967544750805</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33205,7 +33205,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>754.0002396832324</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>549.9198891312103</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>233.9389431948329</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>518.0009690113193</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,34 +33962,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>461.1007071927452</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,31 +34199,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>754.0002396832324</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34699,7 +34699,7 @@
         <v>243.9449667520763</v>
       </c>
       <c r="K2" t="n">
-        <v>315.1028144241465</v>
+        <v>354.6246161155308</v>
       </c>
       <c r="L2" t="n">
         <v>240.0230113315052</v>
@@ -34720,7 +34720,7 @@
         <v>315.5952546185448</v>
       </c>
       <c r="R2" t="n">
-        <v>39.52180169138441</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>151.6622745597324</v>
       </c>
       <c r="K3" t="n">
-        <v>122.649588151796</v>
+        <v>387.1148251643746</v>
       </c>
       <c r="L3" t="n">
         <v>582.5482980840951</v>
       </c>
       <c r="M3" t="n">
-        <v>647.4981915352465</v>
+        <v>266.6055873691778</v>
       </c>
       <c r="N3" t="n">
-        <v>368.1712769547966</v>
+        <v>288.2160307407388</v>
       </c>
       <c r="O3" t="n">
-        <v>241.2171229812699</v>
+        <v>329.2142554447296</v>
       </c>
       <c r="P3" t="n">
-        <v>174.0696575289985</v>
+        <v>492.5324261689357</v>
       </c>
       <c r="Q3" t="n">
-        <v>276.0148132527179</v>
+        <v>65.93752551686885</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35018,7 +35018,7 @@
         <v>453.0121960057227</v>
       </c>
       <c r="L6" t="n">
-        <v>419.6910752148007</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M6" t="n">
         <v>370.0059489821469</v>
@@ -35027,7 +35027,7 @@
         <v>394.3530922482246</v>
       </c>
       <c r="O6" t="n">
-        <v>338.3117987025566</v>
+        <v>457.6877737998677</v>
       </c>
       <c r="P6" t="n">
         <v>251.9966948131503</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.5828603915742</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344173</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L8" t="n">
-        <v>360.3852081153411</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755196</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873427</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495859</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P8" t="n">
-        <v>312.0070187510059</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342477</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961994</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>64.12666919171363</v>
+        <v>64.12666919171352</v>
       </c>
       <c r="K9" t="n">
-        <v>380.0164378035037</v>
+        <v>188.5469589931441</v>
       </c>
       <c r="L9" t="n">
-        <v>300.3151001174897</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M9" t="n">
-        <v>370.0059489821471</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482248</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025569</v>
+        <v>338.3117987025566</v>
       </c>
       <c r="P9" t="n">
-        <v>570.4594634530877</v>
+        <v>570.4594634530874</v>
       </c>
       <c r="Q9" t="n">
-        <v>118.0296862297624</v>
+        <v>309.4991650401237</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.44568217978366</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K10" t="n">
-        <v>174.6066995266584</v>
+        <v>174.6066995266583</v>
       </c>
       <c r="L10" t="n">
-        <v>279.5237680912599</v>
+        <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
-        <v>305.2126850597959</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N10" t="n">
-        <v>303.4449211301933</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O10" t="n">
-        <v>264.1024223701675</v>
+        <v>264.1024223701673</v>
       </c>
       <c r="P10" t="n">
-        <v>202.2269825633448</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.7336217364322</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35416,7 +35416,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
@@ -35489,16 +35489,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>425.454249006653</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35507,7 +35507,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35723,16 +35723,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>291.8458072502408</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35741,10 +35741,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>303.8786972770462</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35811,7 +35811,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010438</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
@@ -35823,7 +35823,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998974</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M18" t="n">
-        <v>91.80490927281453</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,31 +36194,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,31 +36431,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>82.88662398579301</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36601,7 +36601,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,22 +36671,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>160.8335108287866</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>622.6585275998991</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>407.3236446867659</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>91.80490927281453</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>386.659256927986</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,13 +37464,13 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>318.5044627483008</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37707,7 +37707,7 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,25 +37853,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>622.6585275998991</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
